--- a/Standorte.xlsx
+++ b/Standorte.xlsx
@@ -229,13 +229,13 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:G2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
